--- a/data/trans_bre/P34A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 6,84</t>
+          <t>-2,06; 6,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,51; 14,39</t>
+          <t>6,69; 14,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 14,32</t>
+          <t>4,52; 13,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 14,76</t>
+          <t>5,08; 14,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 14,64</t>
+          <t>-3,94; 13,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,07; 60,09</t>
+          <t>23,68; 62,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,46; 32,17</t>
+          <t>9,07; 31,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,29; 31,46</t>
+          <t>9,36; 31,38</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 6,35</t>
+          <t>-0,37; 6,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,22</t>
+          <t>4,36; 10,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 10,97</t>
+          <t>4,63; 10,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 8,3</t>
+          <t>-1,81; 8,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 16,33</t>
+          <t>-1,0; 16,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,69; 47,45</t>
+          <t>18,23; 50,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,04; 36,12</t>
+          <t>13,66; 35,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 28,83</t>
+          <t>-4,8; 27,53</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 18,21</t>
+          <t>5,9; 18,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 9,5</t>
+          <t>-0,17; 9,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 10,66</t>
+          <t>0,13; 10,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 6,71</t>
+          <t>-2,08; 7,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,05; 75,93</t>
+          <t>18,26; 74,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 85,59</t>
+          <t>-1,02; 86,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 52,6</t>
+          <t>0,39; 53,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 32,19</t>
+          <t>-8,26; 35,64</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 7,41</t>
+          <t>2,68; 7,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 10,52</t>
+          <t>6,21; 10,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,54; 11,32</t>
+          <t>6,3; 11,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 9,4</t>
+          <t>2,62; 9,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 18,66</t>
+          <t>6,44; 19,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,16; 49,57</t>
+          <t>26,05; 48,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,63; 34,51</t>
+          <t>17,9; 34,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,48; 29,99</t>
+          <t>7,98; 30,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P34A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 6,46</t>
+          <t>-1,8; 6,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,69; 14,64</t>
+          <t>6,22; 14,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 13,8</t>
+          <t>4,68; 14,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 13,58</t>
+          <t>-3,61; 13,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,68; 62,26</t>
+          <t>22,54; 60,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,07; 31,04</t>
+          <t>9,48; 33,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 6,47</t>
+          <t>-0,45; 6,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 10,6</t>
+          <t>4,35; 10,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 10,92</t>
+          <t>4,84; 10,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 16,38</t>
+          <t>-1,14; 17,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,23; 50,02</t>
+          <t>17,49; 47,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,66; 35,81</t>
+          <t>14,13; 35,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 18,04</t>
+          <t>5,84; 17,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 9,64</t>
+          <t>-1,01; 9,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 10,85</t>
+          <t>-0,15; 10,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,26; 74,24</t>
+          <t>19,93; 74,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 86,55</t>
+          <t>-6,18; 79,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 53,81</t>
+          <t>-0,57; 54,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,64</t>
+          <t>2,59; 7,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,21; 10,49</t>
+          <t>6,42; 10,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 11,15</t>
+          <t>6,47; 11,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 19,46</t>
+          <t>6,12; 18,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,05; 48,73</t>
+          <t>27,7; 49,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,9; 34,42</t>
+          <t>18,38; 33,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P34A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 6,46</t>
+          <t>-1,42; 6,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,22; 14,35</t>
+          <t>6,51; 14,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,68; 14,85</t>
+          <t>4,8; 14,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,08; 14,77</t>
+          <t>4,98; 14,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 13,81</t>
+          <t>-2,55; 14,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,54; 60,69</t>
+          <t>23,07; 60,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,48; 33,68</t>
+          <t>9,46; 32,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,36; 31,38</t>
+          <t>9,29; 31,46</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 6,58</t>
+          <t>-0,76; 6,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 10,34</t>
+          <t>4,19; 10,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,84; 10,93</t>
+          <t>4,67; 10,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 8,02</t>
+          <t>-1,02; 8,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 17,14</t>
+          <t>-1,65; 16,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,49; 47,53</t>
+          <t>16,69; 47,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,13; 35,89</t>
+          <t>14,04; 36,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 27,53</t>
+          <t>-2,87; 28,83</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,84; 17,63</t>
+          <t>6,09; 18,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 9,07</t>
+          <t>-0,71; 9,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 10,98</t>
+          <t>0,02; 10,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 7,57</t>
+          <t>-2,13; 6,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,93; 74,37</t>
+          <t>20,05; 75,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 79,95</t>
+          <t>-6,12; 85,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 54,02</t>
+          <t>0,01; 52,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 35,64</t>
+          <t>-7,99; 32,19</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 7,42</t>
+          <t>2,44; 7,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 10,66</t>
+          <t>6,1; 10,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,47; 11,1</t>
+          <t>6,54; 11,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 9,37</t>
+          <t>2,37; 9,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 18,65</t>
+          <t>5,71; 18,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,7; 49,89</t>
+          <t>26,16; 49,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,38; 33,82</t>
+          <t>18,63; 34,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,98; 30,36</t>
+          <t>7,48; 29,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P34A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,11</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>18,42%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 14,76</t>
+          <t>4,68; 14,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,29; 31,46</t>
+          <t>8,49; 29,86</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>19,31%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 8,3</t>
+          <t>-3,23; 14,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 28,83</t>
+          <t>-9,35; 61,87</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>11,68%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 6,71</t>
+          <t>-1,91; 6,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 32,19</t>
+          <t>-7,31; 32,83</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>23,14%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 9,4</t>
+          <t>0,56; 13,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,48; 29,99</t>
+          <t>3,72; 53,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P34A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 6,84</t>
+          <t>-1,8; 6,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,51; 14,39</t>
+          <t>6,42; 14,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 14,32</t>
+          <t>3,96; 13,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,68; 14,22</t>
+          <t>4,44; 14,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 14,64</t>
+          <t>-3,55; 14,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,07; 60,09</t>
+          <t>23,35; 63,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,46; 32,17</t>
+          <t>7,97; 31,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,49; 29,86</t>
+          <t>8,15; 30,85</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 6,35</t>
+          <t>-0,49; 6,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,22</t>
+          <t>4,26; 10,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 10,97</t>
+          <t>4,5; 10,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 14,29</t>
+          <t>-3,19; 14,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 16,33</t>
+          <t>-1,13; 17,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,69; 47,45</t>
+          <t>17,72; 47,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,04; 36,12</t>
+          <t>13,89; 35,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 61,87</t>
+          <t>-8,95; 62,34</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 18,21</t>
+          <t>5,61; 18,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 9,5</t>
+          <t>-0,36; 9,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 10,66</t>
+          <t>0,01; 10,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 6,92</t>
+          <t>-2,24; 7,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,05; 75,93</t>
+          <t>19,8; 76,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 85,59</t>
+          <t>-3,28; 87,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 52,6</t>
+          <t>0,01; 53,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 32,83</t>
+          <t>-8,33; 34,41</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 7,41</t>
+          <t>2,58; 7,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 10,52</t>
+          <t>6,27; 10,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,54; 11,32</t>
+          <t>6,44; 11,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 13,49</t>
+          <t>1,49; 13,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 18,66</t>
+          <t>6,02; 18,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,16; 49,57</t>
+          <t>27,29; 49,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,63; 34,51</t>
+          <t>18,47; 33,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 53,32</t>
+          <t>5,49; 52,35</t>
         </is>
       </c>
     </row>
